--- a/Results_With_Graphs.xlsx
+++ b/Results_With_Graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luanamarrocco/Desktop/ULB/Swarm intelligence/SwarmProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F28871-9DE0-2648-A5A4-475901EB04E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A3314D-BC2E-DB41-856B-537B86A2B0EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{70BB57D7-AAB5-E048-87A9-F56A09FDF04F}"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{70BB57D7-AAB5-E048-87A9-F56A09FDF04F}"/>
   </bookViews>
   <sheets>
     <sheet name="MaxMin" sheetId="1" r:id="rId1"/>
@@ -10821,7 +10821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FEFC08-C999-2743-A4C2-BC10B94B6CAF}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -11826,7 +11826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978C8D3D-39A1-FB43-897E-B656BAACEEE6}">
   <dimension ref="A1:AU57"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
